--- a/tables.xlsx
+++ b/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ids_table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>id_name</t>
   </si>
@@ -39,24 +39,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>A, B, C</t>
-  </si>
-  <si>
-    <t>D, E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>OR, 3, 2</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>OR, 2, 3, 4</t>
-  </si>
-  <si>
     <t>pr_name</t>
   </si>
   <si>
@@ -78,12 +60,6 @@
     <t>map_2</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>[[3, 1], [4, 2]]</t>
-  </si>
-  <si>
     <t>result_id</t>
   </si>
   <si>
@@ -102,9 +78,6 @@
     <t>(1, 3)</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>[1, -2]</t>
   </si>
   <si>
@@ -114,24 +87,12 @@
     <t>(1, 5)</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>(2, 6), (3, 7)</t>
   </si>
   <si>
     <t>(4, 8), (5, 9)</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>(1, 10)</t>
   </si>
   <si>
@@ -165,10 +126,40 @@
     <t>(1, 18)</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>[[19, 17, 14], [20, 18, 16]]</t>
+  </si>
+  <si>
+    <t>oH</t>
+  </si>
+  <si>
+    <t>aA</t>
+  </si>
+  <si>
+    <t>aB</t>
+  </si>
+  <si>
+    <t>aC</t>
+  </si>
+  <si>
+    <t>aD</t>
+  </si>
+  <si>
+    <t>aE</t>
+  </si>
+  <si>
+    <t>aF</t>
+  </si>
+  <si>
+    <t>aG</t>
+  </si>
+  <si>
+    <t>iZ</t>
+  </si>
+  <si>
+    <t>aA, aB, aD, aE, aG</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -227,10 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,9 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -561,57 +557,347 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.1</v>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -619,194 +905,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -818,36 +1104,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -860,25 +1145,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
